--- a/AutoTest/ImoocInterface/configdata/useexm.xlsx
+++ b/AutoTest/ImoocInterface/configdata/useexm.xlsx
@@ -16,84 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>是否执行</t>
+    <t>yesornot</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>请求方式</t>
+    <t>type</t>
   </si>
   <si>
     <t>header</t>
   </si>
   <si>
-    <t>依赖id</t>
+    <t>yilaiid</t>
   </si>
   <si>
-    <t>依赖数据</t>
+    <t>yilai_data</t>
   </si>
   <si>
-    <t>依赖数据所属字段</t>
+    <t>yilai_data_key</t>
   </si>
   <si>
-    <t>请求数据</t>
+    <t>request</t>
   </si>
   <si>
-    <t>预期结果</t>
+    <t>expect</t>
   </si>
   <si>
-    <t>实际结果</t>
+    <t>actual</t>
   </si>
   <si>
-    <t>万年历天气</t>
+    <t>wnl</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg'</t>
+    <t>https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg</t>
   </si>
   <si>
-    <t>"commonbody"</t>
+    <t>post</t>
   </si>
   <si>
-    <t>万年历首页</t>
+    <t>commonbody</t>
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>万年历提醒</t>
-  </si>
-  <si>
-    <t>万年历黄历</t>
-  </si>
-  <si>
-    <t>万年历小喇叭</t>
-  </si>
-  <si>
-    <t>万年历月视图</t>
-  </si>
-  <si>
-    <t>万年历运程</t>
-  </si>
-  <si>
-    <t>万年历大卡</t>
-  </si>
-  <si>
-    <t>万年历小卡</t>
-  </si>
-  <si>
-    <t>万年历下拉banner</t>
-  </si>
-  <si>
-    <t>万年历日历模式</t>
   </si>
 </sst>
 </file>
@@ -123,34 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -162,6 +107,34 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,31 +575,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,13 +620,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -665,10 +638,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -683,56 +656,56 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,11 +715,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1099,22 +1075,22 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="70.25" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:11">
@@ -1159,25 +1135,27 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1185,18 +1163,24 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1204,148 +1188,218 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -1356,13 +1410,21 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
@@ -1373,13 +1435,21 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -1390,13 +1460,21 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -1407,13 +1485,21 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -1424,13 +1510,21 @@
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -1441,17 +1535,44 @@
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C10" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C11" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C12" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C13" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C14" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C15" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C16" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C17" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C18" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/AutoTest/ImoocInterface/configdata/useexm.xlsx
+++ b/AutoTest/ImoocInterface/configdata/useexm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -66,7 +66,22 @@
     <t>commonbody</t>
   </si>
   <si>
+    <t>ceba49ff223e6af516c629f3a02b7a2a</t>
+  </si>
+  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>ceba49ff223e6af516c629f3a02b7a2b</t>
+  </si>
+  <si>
+    <t>ceba49ff223e6af516c629f3a02b7a2c</t>
+  </si>
+  <si>
+    <t>ceba49ff223e6af516c629f3a02b7a2d</t>
+  </si>
+  <si>
+    <t>ceba49ff223e6af516c629f3a02b7a2e</t>
   </si>
 </sst>
 </file>
@@ -434,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -446,6 +461,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -566,7 +594,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,28 +642,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,10 +672,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,8 +749,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1089,7 +1123,7 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="33.625" customWidth="1"/>
     <col min="11" max="11" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,10 +1181,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
@@ -1158,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1172,10 +1208,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
@@ -1183,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -1197,10 +1235,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
@@ -1208,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1222,10 +1262,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
@@ -1233,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -1247,10 +1289,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
@@ -1258,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1272,10 +1316,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
@@ -1283,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1297,10 +1343,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
@@ -1322,10 +1370,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
@@ -1347,10 +1397,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
@@ -1372,10 +1424,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
@@ -1397,10 +1451,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
@@ -1422,10 +1478,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
@@ -1447,10 +1505,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
@@ -1472,10 +1532,12 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
@@ -1497,10 +1559,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
@@ -1522,36 +1586,158 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1562,7 +1748,6 @@
     <hyperlink ref="C6" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C7" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C8" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C9" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C10" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C11" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C12" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
@@ -1570,8 +1755,8 @@
     <hyperlink ref="C14" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C15" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C16" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
     <hyperlink ref="C17" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C18" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
